--- a/dist/data/profiles/xlsx/bluff/profile 27-2 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 27-2 graph.xlsx
@@ -5673,11 +5673,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36773179"/>
-        <c:axId val="44859199"/>
+        <c:axId val="96693014"/>
+        <c:axId val="87628125"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36773179"/>
+        <c:axId val="96693014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,12 +5712,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44859199"/>
+        <c:crossAx val="87628125"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44859199"/>
+        <c:axId val="87628125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5761,7 +5761,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36773179"/>
+        <c:crossAx val="96693014"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
